--- a/raw_data/20200818_saline/20200818_Sensor0_Test_71.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_71.xlsx
@@ -1,870 +1,1286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A2BFD-1223-4235-BAD7-B1A0AB6D4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>63003.206626</v>
+        <v>63003.206625999999</v>
       </c>
       <c r="B2" s="1">
-        <v>17.500891</v>
+        <v>17.500890999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>899.475000</v>
+        <v>899.47500000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.862000</v>
+        <v>-196.86199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>63013.412774</v>
+        <v>63013.412773999997</v>
       </c>
       <c r="G2" s="1">
         <v>17.503726</v>
       </c>
       <c r="H2" s="1">
-        <v>916.934000</v>
+        <v>916.93399999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.022000</v>
+        <v>-167.02199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>63023.571337</v>
+        <v>63023.571337000001</v>
       </c>
       <c r="L2" s="1">
-        <v>17.506548</v>
+        <v>17.506547999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.774000</v>
+        <v>939.774</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.104000</v>
+        <v>-120.104</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>63033.747140</v>
+        <v>63033.747139999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.509374</v>
+        <v>17.509374000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.496000</v>
+        <v>946.49599999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.660000</v>
+        <v>-104.66</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>63044.008492</v>
+        <v>63044.008492000001</v>
       </c>
       <c r="V2" s="1">
-        <v>17.512225</v>
+        <v>17.512225000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>953.065000</v>
+        <v>953.06500000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.713700</v>
+        <v>-90.713700000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>63054.117952</v>
+        <v>63054.117952000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.515033</v>
+        <v>17.515032999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.560000</v>
+        <v>960.56</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.754100</v>
+        <v>-80.754099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63065.269542</v>
+        <v>63065.269542000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.518130</v>
+        <v>17.518129999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.608000</v>
+        <v>965.60799999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.133000</v>
+        <v>-80.132999999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>63075.717731</v>
+        <v>63075.717730999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.521033</v>
+        <v>17.521032999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.362000</v>
+        <v>973.36199999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.567300</v>
+        <v>-87.567300000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>63086.372823</v>
+        <v>63086.372822999998</v>
       </c>
       <c r="AP2" s="1">
         <v>17.523992</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.464000</v>
+        <v>982.46400000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>63097.410262</v>
+        <v>63097.410261999998</v>
       </c>
       <c r="AU2" s="1">
         <v>17.527058</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.772000</v>
+        <v>993.77200000000005</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.584000</v>
+        <v>-123.584</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>63108.587608</v>
+        <v>63108.587608000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.530163</v>
+        <v>17.530163000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.184000</v>
+        <v>-142.184</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>63119.565561</v>
+        <v>63119.565561000003</v>
       </c>
       <c r="BE2" s="1">
         <v>17.533213</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.408000</v>
+        <v>-226.40799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>63130.875338</v>
+        <v>63130.875337999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.536354</v>
+        <v>17.536353999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.179000</v>
+        <v>-361.17899999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>63141.897435</v>
+        <v>63141.897434999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.539416</v>
+        <v>17.539415999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-568.538000</v>
+        <v>-568.53800000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>63152.652686</v>
+        <v>63152.652686000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.542404</v>
+        <v>17.542404000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1406.190000</v>
+        <v>1406.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-789.167000</v>
+        <v>-789.16700000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>63163.751663</v>
+        <v>63163.751663000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.545487</v>
+        <v>17.545487000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1566.420000</v>
+        <v>1566.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1019.700000</v>
+        <v>-1019.7</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>63174.722176</v>
+        <v>63174.722176000003</v>
       </c>
       <c r="CD2" s="1">
         <v>17.548534</v>
       </c>
       <c r="CE2" s="1">
-        <v>1969.010000</v>
+        <v>1969.01</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1558.120000</v>
+        <v>-1558.12</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>63003.337538</v>
       </c>
       <c r="B3" s="1">
-        <v>17.500927</v>
+        <v>17.500927000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>899.352000</v>
+        <v>899.35199999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.025000</v>
+        <v>-197.02500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>63013.761956</v>
+        <v>63013.761956000002</v>
       </c>
       <c r="G3" s="1">
-        <v>17.503823</v>
+        <v>17.503823000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>916.720000</v>
+        <v>916.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.078000</v>
+        <v>-167.078</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>63023.923495</v>
+        <v>63023.923495000003</v>
       </c>
       <c r="L3" s="1">
-        <v>17.506645</v>
+        <v>17.506644999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.695000</v>
+        <v>939.69500000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.140000</v>
+        <v>-120.14</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>63034.131163</v>
+        <v>63034.131162999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.509481</v>
+        <v>17.509481000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.530000</v>
+        <v>946.53</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.681000</v>
+        <v>-104.681</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>63044.392397</v>
+        <v>63044.392397000003</v>
       </c>
       <c r="V3" s="1">
         <v>17.512331</v>
       </c>
       <c r="W3" s="1">
-        <v>953.069000</v>
+        <v>953.06899999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.585300</v>
+        <v>-90.585300000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>63054.539550</v>
+        <v>63054.539550000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.515150</v>
+        <v>17.515149999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.458000</v>
+        <v>960.45799999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.761300</v>
+        <v>-80.761300000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>63065.665841</v>
+        <v>63065.665841000002</v>
       </c>
       <c r="AF3" s="1">
         <v>17.518241</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.454000</v>
+        <v>965.45399999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.113900</v>
+        <v>-80.113900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>63076.132418</v>
+        <v>63076.132418000001</v>
       </c>
       <c r="AK3" s="1">
         <v>17.521148</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.355000</v>
+        <v>973.35500000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.557900</v>
+        <v>-87.557900000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>63086.756693</v>
+        <v>63086.756693000003</v>
       </c>
       <c r="AP3" s="1">
         <v>17.524099</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.463000</v>
+        <v>982.46299999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.258000</v>
+        <v>-102.258</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>63097.794662</v>
@@ -873,195 +1289,195 @@
         <v>17.527165</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.761000</v>
+        <v>993.76099999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.585000</v>
+        <v>-123.58499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>63108.978984</v>
+        <v>63108.978984000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>17.530272</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.178000</v>
+        <v>-142.178</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>63120.319976</v>
+        <v>63120.319975999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.533422</v>
+        <v>17.533422000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.570000</v>
+        <v>1048.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.409000</v>
+        <v>-226.40899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>63131.277099</v>
+        <v>63131.277098999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.536466</v>
+        <v>17.536466000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.980000</v>
+        <v>1127.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.162000</v>
+        <v>-361.16199999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>63142.309610</v>
+        <v>63142.309609999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.539530</v>
+        <v>17.539529999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1259.270000</v>
+        <v>1259.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.595000</v>
+        <v>-568.59500000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>63153.077757</v>
+        <v>63153.077756999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.542522</v>
+        <v>17.542522000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1406.190000</v>
+        <v>1406.19</v>
       </c>
       <c r="BV3" s="1">
-        <v>-789.207000</v>
+        <v>-789.20699999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>63164.540302</v>
+        <v>63164.540302000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.545706</v>
+        <v>17.545705999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1566.250000</v>
+        <v>1566.25</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1019.440000</v>
+        <v>-1019.44</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>63175.583727</v>
+        <v>63175.583726999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.548773</v>
+        <v>17.548773000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1970.470000</v>
+        <v>1970.47</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1557.110000</v>
+        <v>-1557.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>63003.678786</v>
+        <v>63003.678785999997</v>
       </c>
       <c r="B4" s="1">
-        <v>17.501022</v>
+        <v>17.501021999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.397000</v>
+        <v>899.39700000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.016000</v>
+        <v>-197.01599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>63014.104724</v>
+        <v>63014.104723999997</v>
       </c>
       <c r="G4" s="1">
-        <v>17.503918</v>
+        <v>17.503917999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.713000</v>
+        <v>916.71299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.769000</v>
+        <v>-167.76900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>63024.269208</v>
+        <v>63024.269207999998</v>
       </c>
       <c r="L4" s="1">
-        <v>17.506741</v>
+        <v>17.506741000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>939.902000</v>
+        <v>939.90200000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.104000</v>
+        <v>-120.104</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>63034.554250</v>
+        <v>63034.554250000001</v>
       </c>
       <c r="Q4" s="1">
         <v>17.509598</v>
       </c>
       <c r="R4" s="1">
-        <v>946.517000</v>
+        <v>946.51700000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.658000</v>
+        <v>-104.658</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>63044.814033</v>
+        <v>63044.814033000002</v>
       </c>
       <c r="V4" s="1">
-        <v>17.512448</v>
+        <v>17.512447999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.110000</v>
+        <v>953.11</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.733700</v>
+        <v>-90.733699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>63054.882286</v>
@@ -1070,966 +1486,966 @@
         <v>17.515245</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.491000</v>
+        <v>960.49099999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.828400</v>
+        <v>-80.828400000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63066.012513</v>
+        <v>63066.012513000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.518337</v>
+        <v>17.518336999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.451000</v>
+        <v>965.45100000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.041200</v>
+        <v>-80.041200000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>63076.485043</v>
+        <v>63076.485043000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.521246</v>
+        <v>17.521246000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.362000</v>
+        <v>973.36199999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.557300</v>
+        <v>-87.557299999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>63087.118806</v>
+        <v>63087.118805999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.524200</v>
+        <v>17.5242</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.441000</v>
+        <v>982.44100000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.242000</v>
+        <v>-102.242</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>63098.519348</v>
+        <v>63098.519348000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.527366</v>
+        <v>17.527366000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.749000</v>
+        <v>993.74900000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.593000</v>
+        <v>-123.593</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>63109.696166</v>
+        <v>63109.696166000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.530471</v>
+        <v>17.530470999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.188000</v>
+        <v>-142.18799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>63120.679576</v>
+        <v>63120.679576000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.533522</v>
+        <v>17.533522000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.421000</v>
+        <v>-226.42099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>63131.649098</v>
+        <v>63131.649098000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>17.536569</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.040000</v>
+        <v>1128.04</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.158000</v>
+        <v>-361.15800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>63142.727739</v>
+        <v>63142.727739000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.539647</v>
+        <v>17.539646999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.593000</v>
+        <v>-568.59299999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>63153.801952</v>
+        <v>63153.801952000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.542723</v>
+        <v>17.542722999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1406.130000</v>
+        <v>1406.13</v>
       </c>
       <c r="BV4" s="1">
-        <v>-789.169000</v>
+        <v>-789.16899999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>63164.658846</v>
+        <v>63164.658845999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.545739</v>
+        <v>17.545739000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1566.410000</v>
+        <v>1566.41</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1019.580000</v>
+        <v>-1019.58</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>63175.821343</v>
+        <v>63175.821343000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.548839</v>
+        <v>17.548839000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1969.190000</v>
+        <v>1969.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1555.950000</v>
+        <v>-1555.95</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>63004.022514</v>
+        <v>63004.022513999997</v>
       </c>
       <c r="B5" s="1">
-        <v>17.501117</v>
+        <v>17.501117000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>899.406000</v>
+        <v>899.40599999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.840000</v>
+        <v>-196.84</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>63014.523317</v>
+        <v>63014.523316999999</v>
       </c>
       <c r="G5" s="1">
-        <v>17.504034</v>
+        <v>17.504034000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>916.848000</v>
+        <v>916.84799999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.538000</v>
+        <v>-167.53800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>63024.691340</v>
+        <v>63024.691339999998</v>
       </c>
       <c r="L5" s="1">
-        <v>17.506859</v>
+        <v>17.506858999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>939.800000</v>
+        <v>939.8</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.191000</v>
+        <v>-120.191</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>63034.850858</v>
+        <v>63034.850857999998</v>
       </c>
       <c r="Q5" s="1">
         <v>17.509681</v>
       </c>
       <c r="R5" s="1">
-        <v>946.495000</v>
+        <v>946.495</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.659000</v>
+        <v>-104.65900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>63045.076907</v>
+        <v>63045.076907000002</v>
       </c>
       <c r="V5" s="1">
         <v>17.512521</v>
       </c>
       <c r="W5" s="1">
-        <v>953.076000</v>
+        <v>953.07600000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.695500</v>
+        <v>-90.695499999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>63055.230479</v>
+        <v>63055.230478999998</v>
       </c>
       <c r="AA5" s="1">
         <v>17.515342</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.477000</v>
+        <v>960.47699999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.750600</v>
+        <v>-80.750600000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>63066.352271</v>
+        <v>63066.352271000003</v>
       </c>
       <c r="AF5" s="1">
         <v>17.518431</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.488000</v>
+        <v>965.48800000000006</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.134000</v>
+        <v>-80.134</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>63076.833736</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.521343</v>
+        <v>17.521343000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.351000</v>
+        <v>973.351</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.548000</v>
+        <v>-87.548000000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>63087.849380</v>
+        <v>63087.84938</v>
       </c>
       <c r="AP5" s="1">
         <v>17.524403</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.444000</v>
+        <v>982.44399999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.248000</v>
+        <v>-102.248</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>63098.914132</v>
+        <v>63098.914131999998</v>
       </c>
       <c r="AU5" s="1">
         <v>17.527476</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.777000</v>
+        <v>993.77700000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.585000</v>
+        <v>-123.58499999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>63110.054773</v>
+        <v>63110.054773000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.530571</v>
+        <v>17.530570999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.164000</v>
+        <v>-142.16399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>63121.044663</v>
+        <v>63121.044663000001</v>
       </c>
       <c r="BE5" s="1">
         <v>17.533624</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>63132.341047</v>
+        <v>63132.341047000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.536761</v>
+        <v>17.536760999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.030000</v>
+        <v>1128.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.185000</v>
+        <v>-361.185</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>63143.439994</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.539844</v>
+        <v>17.539843999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.609000</v>
+        <v>-568.60900000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>63153.919548</v>
+        <v>63153.919547999998</v>
       </c>
       <c r="BT5" s="1">
         <v>17.542755</v>
       </c>
       <c r="BU5" s="1">
-        <v>1406.060000</v>
+        <v>1406.06</v>
       </c>
       <c r="BV5" s="1">
-        <v>-789.123000</v>
+        <v>-789.12300000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>63165.098829</v>
+        <v>63165.098829000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.545861</v>
+        <v>17.545860999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1566.430000</v>
+        <v>1566.43</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1019.710000</v>
+        <v>-1019.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>63176.356494</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.548988</v>
+        <v>17.548988000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1969.070000</v>
+        <v>1969.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1557.710000</v>
+        <v>-1557.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>63004.440184</v>
+        <v>63004.440183999999</v>
       </c>
       <c r="B6" s="1">
-        <v>17.501233</v>
+        <v>17.501232999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>899.335000</v>
+        <v>899.33500000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.859000</v>
+        <v>-196.85900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>63014.801113</v>
+        <v>63014.801113000001</v>
       </c>
       <c r="G6" s="1">
-        <v>17.504111</v>
+        <v>17.504111000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>917.231000</v>
+        <v>917.23099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.165000</v>
+        <v>-167.16499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>63024.982986</v>
+        <v>63024.982986000003</v>
       </c>
       <c r="L6" s="1">
-        <v>17.506940</v>
+        <v>17.50694</v>
       </c>
       <c r="M6" s="1">
-        <v>939.764000</v>
+        <v>939.76400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.221000</v>
+        <v>-120.221</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>63035.200573</v>
+        <v>63035.200573000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.509778</v>
+        <v>17.509778000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>946.507000</v>
+        <v>946.50699999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.720000</v>
+        <v>-104.72</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>63045.420106</v>
+        <v>63045.420105999998</v>
       </c>
       <c r="V6" s="1">
-        <v>17.512617</v>
+        <v>17.512616999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>953.139000</v>
+        <v>953.13900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.591900</v>
+        <v>-90.591899999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>63055.578518</v>
+        <v>63055.578518000002</v>
       </c>
       <c r="AA6" s="1">
         <v>17.515438</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.565000</v>
+        <v>960.56500000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.810000</v>
+        <v>-80.81</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>63067.038238</v>
+        <v>63067.038238000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.518622</v>
+        <v>17.518622000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.535000</v>
+        <v>965.53499999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.149200</v>
+        <v>-80.149199999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>63077.532097</v>
+        <v>63077.532097000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.521537</v>
+        <v>17.521536999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.374000</v>
+        <v>973.37400000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.548500</v>
+        <v>-87.548500000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>63088.228323</v>
+        <v>63088.228323000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.524508</v>
+        <v>17.524508000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.472000</v>
+        <v>982.47199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.237000</v>
+        <v>-102.23699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>63099.279223</v>
+        <v>63099.279222999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.527578</v>
+        <v>17.527577999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.762000</v>
+        <v>993.76199999999994</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.594000</v>
+        <v>-123.59399999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>63110.412421</v>
+        <v>63110.412421000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.530670</v>
+        <v>17.530670000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.184000</v>
+        <v>-142.184</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>63121.721701</v>
+        <v>63121.721701000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.533812</v>
+        <v>17.533812000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.411000</v>
+        <v>-226.411</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>63132.772536</v>
+        <v>63132.772535999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.536881</v>
+        <v>17.536881000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.050000</v>
+        <v>1128.05</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.185000</v>
+        <v>-361.185</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>63143.549112</v>
+        <v>63143.549112000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.539875</v>
+        <v>17.539874999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.606000</v>
+        <v>-568.60599999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>63154.358922</v>
+        <v>63154.358921999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.542877</v>
+        <v>17.542877000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1406.070000</v>
+        <v>1406.07</v>
       </c>
       <c r="BV6" s="1">
-        <v>-789.151000</v>
+        <v>-789.15099999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>63165.555613</v>
+        <v>63165.555612999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.545988</v>
+        <v>17.545988000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1566.300000</v>
+        <v>1566.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1019.600000</v>
+        <v>-1019.6</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>63176.898126</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.549138</v>
+        <v>17.549137999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.530000</v>
+        <v>1970.53</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1557.150000</v>
+        <v>-1557.15</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>63004.739760</v>
+        <v>63004.739759999997</v>
       </c>
       <c r="B7" s="1">
         <v>17.501317</v>
       </c>
       <c r="C7" s="1">
-        <v>899.367000</v>
+        <v>899.36699999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.921000</v>
+        <v>-196.92099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>63015.144836</v>
+        <v>63015.144835999999</v>
       </c>
       <c r="G7" s="1">
-        <v>17.504207</v>
+        <v>17.504207000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>916.596000</v>
+        <v>916.596</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.398000</v>
+        <v>-167.398</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>63025.329157</v>
       </c>
       <c r="L7" s="1">
-        <v>17.507036</v>
+        <v>17.507035999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.838000</v>
+        <v>939.83799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.154000</v>
+        <v>-120.154</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>63035.549721</v>
+        <v>63035.549721000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.509875</v>
+        <v>17.509875000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.494000</v>
+        <v>946.49400000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.654000</v>
+        <v>-104.654</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>63045.767804</v>
+        <v>63045.767804000003</v>
       </c>
       <c r="V7" s="1">
-        <v>17.512713</v>
+        <v>17.512713000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>953.101000</v>
+        <v>953.101</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.648100</v>
+        <v>-90.648099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>63056.274096</v>
+        <v>63056.274096000001</v>
       </c>
       <c r="AA7" s="1">
         <v>17.515632</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.502000</v>
+        <v>960.50199999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.754000</v>
+        <v>-80.754000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>63067.381999</v>
+        <v>63067.381998999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.518717</v>
+        <v>17.518716999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.391000</v>
+        <v>965.39099999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.133900</v>
+        <v>-80.133899999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>63077.881280</v>
+        <v>63077.881280000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.521634</v>
+        <v>17.521633999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.346000</v>
+        <v>973.346</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.563600</v>
+        <v>-87.563599999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>63088.586435</v>
+        <v>63088.586434999997</v>
       </c>
       <c r="AP7" s="1">
         <v>17.524607</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.452000</v>
+        <v>982.452</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.236000</v>
+        <v>-102.236</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>63099.956723</v>
+        <v>63099.956723000003</v>
       </c>
       <c r="AU7" s="1">
         <v>17.527766</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.763000</v>
+        <v>993.76300000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.584000</v>
+        <v>-123.584</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>63111.082484</v>
+        <v>63111.082483999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>17.530856</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.177000</v>
+        <v>-142.17699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>63122.128917</v>
+        <v>63122.128917000002</v>
       </c>
       <c r="BE7" s="1">
         <v>17.533925</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.410000</v>
+        <v>-226.41</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>63133.150027</v>
+        <v>63133.150027000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.536986</v>
+        <v>17.536985999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.178000</v>
+        <v>-361.178</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>63143.972698</v>
+        <v>63143.972697999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.539992</v>
+        <v>17.539992000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.601000</v>
+        <v>-568.601</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>63154.772586</v>
+        <v>63154.772585999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.542992</v>
+        <v>17.542992000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1406.010000</v>
+        <v>1406.01</v>
       </c>
       <c r="BV7" s="1">
-        <v>-789.161000</v>
+        <v>-789.16099999999994</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>63166.005483</v>
+        <v>63166.005483000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.546113</v>
+        <v>17.546112999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1566.400000</v>
+        <v>1566.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1019.590000</v>
+        <v>-1019.59</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>63177.437277</v>
+        <v>63177.437276999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.549288</v>
+        <v>17.549288000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1968.360000</v>
+        <v>1968.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1556.960000</v>
+        <v>-1556.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>63005.080976</v>
+        <v>63005.080975999997</v>
       </c>
       <c r="B8" s="1">
-        <v>17.501411</v>
+        <v>17.501411000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.398000</v>
+        <v>899.39800000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.965000</v>
+        <v>-196.965</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>63015.492004</v>
@@ -2038,58 +2454,58 @@
         <v>17.504303</v>
       </c>
       <c r="H8" s="1">
-        <v>916.297000</v>
+        <v>916.29700000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.368000</v>
+        <v>-167.36799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>63025.675895</v>
       </c>
       <c r="L8" s="1">
-        <v>17.507132</v>
+        <v>17.507131999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.794000</v>
+        <v>939.79399999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.118000</v>
+        <v>-120.11799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>63036.246108</v>
+        <v>63036.246107999999</v>
       </c>
       <c r="Q8" s="1">
         <v>17.510068</v>
       </c>
       <c r="R8" s="1">
-        <v>946.490000</v>
+        <v>946.49</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.645000</v>
+        <v>-104.645</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>63046.452777</v>
+        <v>63046.452776999999</v>
       </c>
       <c r="V8" s="1">
-        <v>17.512904</v>
+        <v>17.512903999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.203000</v>
+        <v>953.20299999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.733800</v>
+        <v>-90.733800000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>63056.622785</v>
@@ -2098,103 +2514,103 @@
         <v>17.515729</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.444000</v>
+        <v>960.44399999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.692600</v>
+        <v>-80.692599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>63067.727472</v>
+        <v>63067.727471999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.518813</v>
+        <v>17.518813000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.451000</v>
+        <v>965.45100000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.049300</v>
+        <v>-80.049300000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>63078.225503</v>
+        <v>63078.225503000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.521729</v>
+        <v>17.521729000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.345000</v>
+        <v>973.34500000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.570900</v>
+        <v>-87.570899999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>63089.264009</v>
+        <v>63089.264008999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.524796</v>
+        <v>17.524795999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.460000</v>
+        <v>982.46</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.268000</v>
+        <v>-102.268</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>63100.406626</v>
+        <v>63100.406626000004</v>
       </c>
       <c r="AU8" s="1">
         <v>17.527891</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.772000</v>
+        <v>993.77200000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.594000</v>
+        <v>-123.59399999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>63111.491220</v>
+        <v>63111.491220000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.530970</v>
+        <v>17.53097</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.203000</v>
+        <v>-142.203</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>63122.513813</v>
+        <v>63122.513812999998</v>
       </c>
       <c r="BE8" s="1">
         <v>17.534032</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.427000</v>
+        <v>-226.42699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>63133.527446</v>
@@ -2203,649 +2619,649 @@
         <v>17.537091</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.020000</v>
+        <v>1128.02</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.204000</v>
+        <v>-361.20400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>63144.365528</v>
+        <v>63144.365528000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.540102</v>
+        <v>17.540102000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.584000</v>
+        <v>-568.58399999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>63155.194218</v>
+        <v>63155.194217999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.543110</v>
+        <v>17.543109999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1405.900000</v>
+        <v>1405.9</v>
       </c>
       <c r="BV8" s="1">
-        <v>-789.101000</v>
+        <v>-789.101</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>63166.426123</v>
+        <v>63166.426122999997</v>
       </c>
       <c r="BY8" s="1">
         <v>17.546229</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1566.330000</v>
+        <v>1566.33</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1019.560000</v>
+        <v>-1019.56</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>63177.978413</v>
+        <v>63177.978412999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.549438</v>
+        <v>17.549437999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1969.970000</v>
+        <v>1969.97</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1558.170000</v>
+        <v>-1558.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>63005.424209</v>
+        <v>63005.424208999997</v>
       </c>
       <c r="B9" s="1">
         <v>17.501507</v>
       </c>
       <c r="C9" s="1">
-        <v>899.407000</v>
+        <v>899.40700000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.027000</v>
+        <v>-197.02699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>63016.178466</v>
+        <v>63016.178465999998</v>
       </c>
       <c r="G9" s="1">
-        <v>17.504494</v>
+        <v>17.504494000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>916.356000</v>
+        <v>916.35599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.161000</v>
+        <v>-167.161</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>63026.368278</v>
+        <v>63026.368278000002</v>
       </c>
       <c r="L9" s="1">
-        <v>17.507325</v>
+        <v>17.507325000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>939.675000</v>
+        <v>939.67499999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.080000</v>
+        <v>-120.08</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>63036.593828</v>
+        <v>63036.593827999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.510165</v>
+        <v>17.510165000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.508000</v>
+        <v>946.50800000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.642000</v>
+        <v>-104.642</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>63046.795514</v>
+        <v>63046.795513999998</v>
       </c>
       <c r="V9" s="1">
-        <v>17.512999</v>
+        <v>17.512999000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.111000</v>
+        <v>953.11099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.726900</v>
+        <v>-90.726900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>63056.974412</v>
+        <v>63056.974412000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.515826</v>
+        <v>17.515826000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.581000</v>
+        <v>960.58100000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.803400</v>
+        <v>-80.803399999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>63068.392812</v>
+        <v>63068.392811999998</v>
       </c>
       <c r="AF9" s="1">
         <v>17.518998</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.513000</v>
+        <v>965.51300000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.147300</v>
+        <v>-80.147300000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>63078.882704</v>
+        <v>63078.882704000003</v>
       </c>
       <c r="AK9" s="1">
         <v>17.521912</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.334000</v>
+        <v>973.33399999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.534400</v>
+        <v>-87.534400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>63089.668240</v>
+        <v>63089.668239999999</v>
       </c>
       <c r="AP9" s="1">
         <v>17.524908</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.457000</v>
+        <v>982.45699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>63100.771189</v>
+        <v>63100.771188999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.527992</v>
+        <v>17.527992000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.759000</v>
+        <v>993.75900000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.585000</v>
+        <v>-123.58499999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>63111.879554</v>
+        <v>63111.879553999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.531078</v>
+        <v>17.531078000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>63122.874374</v>
+        <v>63122.874373999999</v>
       </c>
       <c r="BE9" s="1">
         <v>17.534132</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.420000</v>
+        <v>-226.42</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>63133.949047</v>
+        <v>63133.949047000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>17.537208</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.040000</v>
+        <v>1128.04</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.172000</v>
+        <v>-361.17200000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>63144.790135</v>
+        <v>63144.790135000003</v>
       </c>
       <c r="BO9" s="1">
         <v>17.540219</v>
       </c>
       <c r="BP9" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.591000</v>
+        <v>-568.59100000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>63155.599945</v>
+        <v>63155.599945000002</v>
       </c>
       <c r="BT9" s="1">
         <v>17.543222</v>
       </c>
       <c r="BU9" s="1">
-        <v>1405.930000</v>
+        <v>1405.93</v>
       </c>
       <c r="BV9" s="1">
-        <v>-789.143000</v>
+        <v>-789.14300000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>63166.847690</v>
+        <v>63166.847690000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.546347</v>
+        <v>17.546347000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1566.390000</v>
+        <v>1566.39</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1019.750000</v>
+        <v>-1019.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>63178.519580</v>
+        <v>63178.51958</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.549589</v>
+        <v>17.549589000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1969.440000</v>
+        <v>1969.44</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1556.070000</v>
+        <v>-1556.07</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>63006.107230</v>
+        <v>63006.107230000001</v>
       </c>
       <c r="B10" s="1">
-        <v>17.501696</v>
+        <v>17.501695999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>899.357000</v>
+        <v>899.35699999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.969000</v>
+        <v>-196.96899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>63016.523184</v>
+        <v>63016.523183999998</v>
       </c>
       <c r="G10" s="1">
-        <v>17.504590</v>
+        <v>17.50459</v>
       </c>
       <c r="H10" s="1">
-        <v>916.776000</v>
+        <v>916.77599999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.165000</v>
+        <v>-167.16499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>63026.714980</v>
+        <v>63026.714979999997</v>
       </c>
       <c r="L10" s="1">
-        <v>17.507421</v>
+        <v>17.507421000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.681000</v>
+        <v>939.68100000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.045000</v>
+        <v>-120.045</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>63036.941526</v>
+        <v>63036.941526000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.510262</v>
+        <v>17.510262000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>946.510000</v>
+        <v>946.51</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.646000</v>
+        <v>-104.646</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>63047.446264</v>
+        <v>63047.446263999998</v>
       </c>
       <c r="V10" s="1">
-        <v>17.513180</v>
+        <v>17.513179999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>953.215000</v>
+        <v>953.21500000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.672500</v>
+        <v>-90.672499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>63057.637596</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.516010</v>
+        <v>17.516010000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.546000</v>
+        <v>960.54600000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.706800</v>
+        <v>-80.706800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>63068.755887</v>
+        <v>63068.755886999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.519099</v>
+        <v>17.519099000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.631000</v>
+        <v>965.63099999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.935600</v>
+        <v>-79.935599999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>63079.273550</v>
+        <v>63079.273549999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.522020</v>
+        <v>17.522020000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.350000</v>
+        <v>973.35</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.555200</v>
+        <v>-87.555199999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>63090.051616</v>
+        <v>63090.051615999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.525014</v>
+        <v>17.525013999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.461000</v>
+        <v>982.46100000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.229000</v>
+        <v>-102.229</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>63101.134721</v>
+        <v>63101.134721000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.528093</v>
+        <v>17.528092999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.758000</v>
+        <v>993.75800000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.588000</v>
+        <v>-123.58799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>63112.236178</v>
+        <v>63112.236177999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.531177</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.183000</v>
+        <v>-142.18299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>63123.298948</v>
+        <v>63123.298948000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.534250</v>
+        <v>17.53425</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>63134.303685</v>
+        <v>63134.303684999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.537307</v>
+        <v>17.537306999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.185000</v>
+        <v>-361.185</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>63145.187404</v>
+        <v>63145.187403999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.540330</v>
+        <v>17.540330000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.595000</v>
+        <v>-568.59500000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>63156.017544</v>
+        <v>63156.017544000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.543338</v>
+        <v>17.543337999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1405.890000</v>
+        <v>1405.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-789.179000</v>
+        <v>-789.17899999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>63167.273258</v>
+        <v>63167.273258000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.546465</v>
+        <v>17.546465000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1566.420000</v>
+        <v>1566.42</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1019.620000</v>
+        <v>-1019.62</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>63179.055724</v>
+        <v>63179.055723999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.549738</v>
+        <v>17.549738000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1968.680000</v>
+        <v>1968.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1557.680000</v>
+        <v>-1557.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>63006.445503</v>
+        <v>63006.445503000003</v>
       </c>
       <c r="B11" s="1">
-        <v>17.501790</v>
+        <v>17.50179</v>
       </c>
       <c r="C11" s="1">
-        <v>899.276000</v>
+        <v>899.27599999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.047000</v>
+        <v>-197.047</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>63016.867408</v>
+        <v>63016.867407999998</v>
       </c>
       <c r="G11" s="1">
-        <v>17.504685</v>
+        <v>17.504684999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>916.843000</v>
+        <v>916.84299999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.208000</v>
+        <v>-167.208</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>63027.059233</v>
       </c>
       <c r="L11" s="1">
-        <v>17.507516</v>
+        <v>17.507515999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.753000</v>
+        <v>939.75300000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.013000</v>
+        <v>-120.01300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>63037.602663</v>
+        <v>63037.602662999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.510445</v>
+        <v>17.510445000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>946.496000</v>
+        <v>946.49599999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.704000</v>
+        <v>-104.70399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>63047.827716</v>
@@ -2854,148 +3270,148 @@
         <v>17.513285</v>
       </c>
       <c r="W11" s="1">
-        <v>953.073000</v>
+        <v>953.07299999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.712700</v>
+        <v>-90.712699999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>63058.017993</v>
+        <v>63058.017993000001</v>
       </c>
       <c r="AA11" s="1">
         <v>17.516116</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.362000</v>
+        <v>960.36199999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.866900</v>
+        <v>-80.866900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>63069.100141</v>
+        <v>63069.100141000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.519194</v>
+        <v>17.519193999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.531000</v>
+        <v>965.53099999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.045800</v>
+        <v>-80.0458</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>63079.624221</v>
+        <v>63079.624220999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.522118</v>
+        <v>17.522117999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.336000</v>
+        <v>973.33600000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.542500</v>
+        <v>-87.542500000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>63090.414687</v>
+        <v>63090.414686999997</v>
       </c>
       <c r="AP11" s="1">
         <v>17.525115</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.440000</v>
+        <v>982.44</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>63101.558834</v>
+        <v>63101.558834000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.528211</v>
+        <v>17.528210999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.763000</v>
+        <v>993.76300000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.577000</v>
+        <v>-123.577</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>63112.659761</v>
+        <v>63112.659761000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.531294</v>
+        <v>17.531293999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.180000</v>
+        <v>-142.18</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>63123.599555</v>
+        <v>63123.599555000001</v>
       </c>
       <c r="BE11" s="1">
         <v>17.534333</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.417000</v>
+        <v>-226.417</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>63134.681176</v>
+        <v>63134.681175999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.537411</v>
+        <v>17.537410999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.020000</v>
+        <v>1128.02</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.167000</v>
+        <v>-361.16699999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>63145.610982</v>
+        <v>63145.610981999998</v>
       </c>
       <c r="BO11" s="1">
         <v>17.540447</v>
       </c>
       <c r="BP11" s="1">
-        <v>1259.200000</v>
+        <v>1259.2</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.607000</v>
+        <v>-568.60699999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>63156.429719</v>
@@ -3004,210 +3420,210 @@
         <v>17.543453</v>
       </c>
       <c r="BU11" s="1">
-        <v>1405.800000</v>
+        <v>1405.8</v>
       </c>
       <c r="BV11" s="1">
-        <v>-789.209000</v>
+        <v>-789.20899999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>63167.701894</v>
+        <v>63167.701893999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.546584</v>
+        <v>17.546583999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1566.330000</v>
+        <v>1566.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1019.570000</v>
+        <v>-1019.57</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>63179.595411</v>
+        <v>63179.595411000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.549888</v>
+        <v>17.549887999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1970.460000</v>
+        <v>1970.46</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1556.740000</v>
+        <v>-1556.74</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>63006.788707</v>
       </c>
       <c r="B12" s="1">
-        <v>17.501886</v>
+        <v>17.501885999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>899.321000</v>
+        <v>899.32100000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.908000</v>
+        <v>-196.90799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>63017.531055</v>
+        <v>63017.531054999999</v>
       </c>
       <c r="G12" s="1">
-        <v>17.504870</v>
+        <v>17.50487</v>
       </c>
       <c r="H12" s="1">
-        <v>916.671000</v>
+        <v>916.67100000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.215000</v>
+        <v>-167.215</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>63027.722850</v>
+        <v>63027.722849999998</v>
       </c>
       <c r="L12" s="1">
-        <v>17.507701</v>
+        <v>17.507701000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.769000</v>
+        <v>939.76900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.024000</v>
+        <v>-120.024</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>63037.989046</v>
+        <v>63037.989046000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.510553</v>
+        <v>17.510553000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>946.471000</v>
+        <v>946.471</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.672000</v>
+        <v>-104.672</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>63048.174392</v>
+        <v>63048.174392000001</v>
       </c>
       <c r="V12" s="1">
         <v>17.513382</v>
       </c>
       <c r="W12" s="1">
-        <v>953.046000</v>
+        <v>953.04600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.777600</v>
+        <v>-90.777600000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>63058.586441</v>
+        <v>63058.586440999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.516274</v>
+        <v>17.516273999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.487000</v>
+        <v>960.48699999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.775600</v>
+        <v>-80.775599999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>63069.445851</v>
+        <v>63069.445850999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.519291</v>
+        <v>17.519290999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.410000</v>
+        <v>965.41</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.187200</v>
+        <v>-80.187200000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>63079.991262</v>
+        <v>63079.991262000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.522220</v>
+        <v>17.522220000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.358000</v>
+        <v>973.35799999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.577800</v>
+        <v>-87.577799999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>63090.851203</v>
+        <v>63090.851202999998</v>
       </c>
       <c r="AP12" s="1">
         <v>17.525236</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.466000</v>
+        <v>982.46600000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.240000</v>
+        <v>-102.24</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>63101.863869</v>
+        <v>63101.863869000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.528296</v>
+        <v>17.528296000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.760000</v>
+        <v>993.76</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.587000</v>
+        <v>-123.587</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>63112.953889</v>
+        <v>63112.953888999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.531376</v>
+        <v>17.531376000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.185000</v>
+        <v>-142.185</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>63123.957145</v>
@@ -3216,1056 +3632,1056 @@
         <v>17.534433</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.420000</v>
+        <v>-226.42</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>63135.054716</v>
+        <v>63135.054715999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.537515</v>
+        <v>17.537514999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.040000</v>
+        <v>1128.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.206000</v>
+        <v>-361.20600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>63146.007825</v>
+        <v>63146.007825000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.540558</v>
+        <v>17.540558000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1259.230000</v>
+        <v>1259.23</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.608000</v>
+        <v>-568.60799999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>63156.867191</v>
+        <v>63156.867190999998</v>
       </c>
       <c r="BT12" s="1">
         <v>17.543574</v>
       </c>
       <c r="BU12" s="1">
-        <v>1405.760000</v>
+        <v>1405.76</v>
       </c>
       <c r="BV12" s="1">
-        <v>-789.218000</v>
+        <v>-789.21799999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>63168.140296</v>
+        <v>63168.140295999998</v>
       </c>
       <c r="BY12" s="1">
         <v>17.546706</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1566.250000</v>
+        <v>1566.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1019.490000</v>
+        <v>-1019.49</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>63180.147914</v>
+        <v>63180.147914000001</v>
       </c>
       <c r="CD12" s="1">
         <v>17.550041</v>
       </c>
       <c r="CE12" s="1">
-        <v>1968.230000</v>
+        <v>1968.23</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1556.880000</v>
+        <v>-1556.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>63007.445405</v>
+        <v>63007.445404999999</v>
       </c>
       <c r="B13" s="1">
-        <v>17.502068</v>
+        <v>17.502068000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>899.287000</v>
+        <v>899.28700000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.870000</v>
+        <v>-196.87</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63017.904047</v>
+        <v>63017.904047000004</v>
       </c>
       <c r="G13" s="1">
         <v>17.504973</v>
       </c>
       <c r="H13" s="1">
-        <v>916.622000</v>
+        <v>916.62199999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.107000</v>
+        <v>-167.107</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>63028.097600</v>
+        <v>63028.097600000001</v>
       </c>
       <c r="L13" s="1">
-        <v>17.507805</v>
+        <v>17.507805000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.754000</v>
+        <v>939.75400000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.159000</v>
+        <v>-120.15900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>63038.334757</v>
+        <v>63038.334756999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.510649</v>
+        <v>17.510649000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>946.511000</v>
+        <v>946.51099999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.642000</v>
+        <v>-104.642</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>63048.519112</v>
+        <v>63048.519112000002</v>
       </c>
       <c r="V13" s="1">
-        <v>17.513478</v>
+        <v>17.513477999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.078000</v>
+        <v>953.07799999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.659600</v>
+        <v>-90.659599999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>63058.946009</v>
+        <v>63058.946008999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.516374</v>
+        <v>17.516373999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.458000</v>
+        <v>960.45799999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.819000</v>
+        <v>-80.819000000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>63069.878330</v>
+        <v>63069.87833</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.519411</v>
+        <v>17.519411000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.477000</v>
+        <v>965.47699999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.984200</v>
+        <v>-79.984200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>63080.466939</v>
+        <v>63080.466938999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.522352</v>
+        <v>17.522352000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.349000</v>
+        <v>973.34900000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.545900</v>
+        <v>-87.545900000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>63091.133390</v>
+        <v>63091.133390000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.525315</v>
+        <v>17.525314999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.457000</v>
+        <v>982.45699999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.240000</v>
+        <v>-102.24</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>63102.227407</v>
+        <v>63102.227406999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.528397</v>
+        <v>17.528396999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.752000</v>
+        <v>993.75199999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.565000</v>
+        <v>-123.565</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>63113.315519</v>
+        <v>63113.315519000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.531477</v>
+        <v>17.531476999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.350000</v>
+        <v>1003.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.188000</v>
+        <v>-142.18799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>63124.319714</v>
+        <v>63124.319713999997</v>
       </c>
       <c r="BE13" s="1">
         <v>17.534533</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.419000</v>
+        <v>-226.41900000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>63135.828915</v>
+        <v>63135.828914999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.537730</v>
+        <v>17.53773</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.171000</v>
+        <v>-361.17099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>63146.455702</v>
+        <v>63146.455701999999</v>
       </c>
       <c r="BO13" s="1">
         <v>17.540682</v>
       </c>
       <c r="BP13" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.608000</v>
+        <v>-568.60799999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>63157.296727</v>
+        <v>63157.296727000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.543694</v>
+        <v>17.543693999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1405.740000</v>
+        <v>1405.74</v>
       </c>
       <c r="BV13" s="1">
-        <v>-789.215000</v>
+        <v>-789.21500000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>63168.559913</v>
+        <v>63168.559912999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.546822</v>
+        <v>17.546821999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1566.280000</v>
+        <v>1566.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1019.560000</v>
+        <v>-1019.56</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>63180.987639</v>
+        <v>63180.987638999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.550274</v>
+        <v>17.550274000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.890000</v>
+        <v>1969.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1556.180000</v>
+        <v>-1556.18</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>63007.816179</v>
+        <v>63007.816179000001</v>
       </c>
       <c r="B14" s="1">
-        <v>17.502171</v>
+        <v>17.502171000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>899.265000</v>
+        <v>899.26499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.879000</v>
+        <v>-196.87899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>63018.250289</v>
+        <v>63018.250289000003</v>
       </c>
       <c r="G14" s="1">
-        <v>17.505070</v>
+        <v>17.50507</v>
       </c>
       <c r="H14" s="1">
-        <v>916.996000</v>
+        <v>916.99599999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.281000</v>
+        <v>-167.28100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>63028.442080</v>
+        <v>63028.442080000001</v>
       </c>
       <c r="L14" s="1">
         <v>17.507901</v>
       </c>
       <c r="M14" s="1">
-        <v>939.680000</v>
+        <v>939.68</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.163000</v>
+        <v>-120.163</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>63038.684931</v>
+        <v>63038.684931000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.510746</v>
+        <v>17.510746000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.497000</v>
+        <v>946.49699999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.670000</v>
+        <v>-104.67</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>63048.948681</v>
+        <v>63048.948681000002</v>
       </c>
       <c r="V14" s="1">
-        <v>17.513597</v>
+        <v>17.513597000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>953.140000</v>
+        <v>953.14</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.699900</v>
+        <v>-90.6999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>63059.373560</v>
+        <v>63059.37356</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.516493</v>
+        <v>17.516493000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.399000</v>
+        <v>960.399</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.762200</v>
+        <v>-80.762200000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>63070.157083</v>
+        <v>63070.157082999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.519488</v>
+        <v>17.519487999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.538000</v>
+        <v>965.53800000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.158400</v>
+        <v>-80.1584</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>63080.733275</v>
+        <v>63080.733274999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.522426</v>
+        <v>17.522425999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.339000</v>
+        <v>973.33900000000006</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.587100</v>
+        <v>-87.587100000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>63091.492046</v>
+        <v>63091.492045999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.525414</v>
+        <v>17.525414000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.449000</v>
+        <v>982.44899999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>63102.595439</v>
+        <v>63102.595438999997</v>
       </c>
       <c r="AU14" s="1">
         <v>17.528499</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.758000</v>
+        <v>993.75800000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.594000</v>
+        <v>-123.59399999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>63113.997997</v>
+        <v>63113.997996999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.531666</v>
+        <v>17.531666000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.189000</v>
+        <v>-142.18899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>63125.039068</v>
+        <v>63125.039067999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.534733</v>
+        <v>17.534732999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.408000</v>
+        <v>-226.40799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>63136.206338</v>
+        <v>63136.206338000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.537835</v>
+        <v>17.537835000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.193000</v>
+        <v>-361.19299999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>63146.825191</v>
+        <v>63146.825191000004</v>
       </c>
       <c r="BO14" s="1">
         <v>17.540785</v>
       </c>
       <c r="BP14" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.595000</v>
+        <v>-568.59500000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>63157.708406</v>
+        <v>63157.708405999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.543808</v>
+        <v>17.543807999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="BV14" s="1">
-        <v>-789.244000</v>
+        <v>-789.24400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>63169.297926</v>
+        <v>63169.297925999999</v>
       </c>
       <c r="BY14" s="1">
         <v>17.547027</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1566.330000</v>
+        <v>1566.33</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1019.500000</v>
+        <v>-1019.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>63181.216801</v>
+        <v>63181.216801000002</v>
       </c>
       <c r="CD14" s="1">
         <v>17.550338</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.290000</v>
+        <v>1970.29</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1556.530000</v>
+        <v>-1556.53</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>63008.156668</v>
+        <v>63008.156668000003</v>
       </c>
       <c r="B15" s="1">
-        <v>17.502266</v>
+        <v>17.502265999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>899.531000</v>
+        <v>899.53099999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.018000</v>
+        <v>-197.018</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>63018.594018</v>
+        <v>63018.594018000003</v>
       </c>
       <c r="G15" s="1">
-        <v>17.505165</v>
+        <v>17.505165000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>916.839000</v>
+        <v>916.83900000000006</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.201000</v>
+        <v>-167.20099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>63028.788753</v>
+        <v>63028.788753000001</v>
       </c>
       <c r="L15" s="1">
         <v>17.507997</v>
       </c>
       <c r="M15" s="1">
-        <v>939.809000</v>
+        <v>939.80899999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.252000</v>
+        <v>-120.252</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>63039.113492</v>
+        <v>63039.113491999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.510865</v>
+        <v>17.510864999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.486000</v>
+        <v>946.48599999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.668000</v>
+        <v>-104.66800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>63049.216521</v>
+        <v>63049.216521000002</v>
       </c>
       <c r="V15" s="1">
-        <v>17.513671</v>
+        <v>17.513670999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>953.282000</v>
+        <v>953.28200000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.679400</v>
+        <v>-90.679400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>63059.653304</v>
+        <v>63059.653303999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.516570</v>
+        <v>17.516570000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.484000</v>
+        <v>960.48400000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.786300</v>
+        <v>-80.786299999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>63070.499321</v>
+        <v>63070.499321000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.519583</v>
+        <v>17.519583000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.520000</v>
+        <v>965.52</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.121000</v>
+        <v>-80.120999999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>63081.072571</v>
+        <v>63081.072570999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.522520</v>
+        <v>17.52252</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.356000</v>
+        <v>973.35599999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.566700</v>
+        <v>-87.566699999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>63091.851630</v>
+        <v>63091.851629999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.525514</v>
+        <v>17.525514000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.443000</v>
+        <v>982.44299999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.267000</v>
+        <v>-102.267</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>63103.320094</v>
+        <v>63103.320094000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.528700</v>
+        <v>17.528700000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.761000</v>
+        <v>993.76099999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.572000</v>
+        <v>-123.572</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>63114.388847</v>
+        <v>63114.388847000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>17.531775</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.169000</v>
+        <v>-142.16900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>63125.402482</v>
+        <v>63125.402481999998</v>
       </c>
       <c r="BE15" s="1">
         <v>17.534834</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.394000</v>
+        <v>-226.39400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>63136.579858</v>
+        <v>63136.579857999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.537939</v>
+        <v>17.537939000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.196000</v>
+        <v>-361.19600000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>63147.559764</v>
+        <v>63147.559763999998</v>
       </c>
       <c r="BO15" s="1">
         <v>17.540989</v>
       </c>
       <c r="BP15" s="1">
-        <v>1259.250000</v>
+        <v>1259.25</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.570000</v>
+        <v>-568.57000000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>63158.460341</v>
+        <v>63158.460340999998</v>
       </c>
       <c r="BT15" s="1">
         <v>17.544017</v>
       </c>
       <c r="BU15" s="1">
-        <v>1405.700000</v>
+        <v>1405.7</v>
       </c>
       <c r="BV15" s="1">
-        <v>-789.226000</v>
+        <v>-789.226</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>63169.466071</v>
+        <v>63169.466071000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.547074</v>
+        <v>17.547073999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1566.280000</v>
+        <v>1566.28</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1019.520000</v>
+        <v>-1019.52</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>63181.735606</v>
+        <v>63181.735606000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.550482</v>
+        <v>17.550481999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1968.680000</v>
+        <v>1968.68</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1556.280000</v>
+        <v>-1556.28</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>63008.501419</v>
       </c>
       <c r="B16" s="1">
-        <v>17.502362</v>
+        <v>17.502362000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>899.382000</v>
+        <v>899.38199999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.042000</v>
+        <v>-197.042</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>63019.011645</v>
+        <v>63019.011644999999</v>
       </c>
       <c r="G16" s="1">
         <v>17.505281</v>
       </c>
       <c r="H16" s="1">
-        <v>916.250000</v>
+        <v>916.25</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.398000</v>
+        <v>-167.398</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>63029.219776</v>
+        <v>63029.219775999998</v>
       </c>
       <c r="L16" s="1">
-        <v>17.508117</v>
+        <v>17.508116999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>939.695000</v>
+        <v>939.69500000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.097000</v>
+        <v>-120.09699999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>63039.396726</v>
+        <v>63039.396725999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.510944</v>
+        <v>17.510943999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>946.497000</v>
+        <v>946.49699999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.673000</v>
+        <v>-104.673</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>63049.561703</v>
+        <v>63049.561702999999</v>
       </c>
       <c r="V16" s="1">
-        <v>17.513767</v>
+        <v>17.513767000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.140000</v>
+        <v>953.14</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.543700</v>
+        <v>-90.543700000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>63060.003511</v>
+        <v>63060.003511000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.516668</v>
+        <v>17.516667999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.422000</v>
+        <v>960.42200000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.726100</v>
+        <v>-80.726100000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>63070.842580</v>
+        <v>63070.842579999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.519678</v>
+        <v>17.519677999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.383000</v>
+        <v>965.38300000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.244800</v>
+        <v>-80.244799999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>63081.768427</v>
+        <v>63081.768427000003</v>
       </c>
       <c r="AK16" s="1">
         <v>17.522713</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.373000</v>
+        <v>973.37300000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.542900</v>
+        <v>-87.542900000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>63092.570796</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.525714</v>
+        <v>17.525714000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.447000</v>
+        <v>982.447</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>63103.714942</v>
+        <v>63103.714941999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.528810</v>
+        <v>17.52881</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.766000</v>
+        <v>993.76599999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.609000</v>
+        <v>-123.60899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>63114.748415</v>
+        <v>63114.748415000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.531875</v>
+        <v>17.531874999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.158000</v>
+        <v>-142.15799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>63125.751665</v>
+        <v>63125.751665000003</v>
       </c>
       <c r="BE16" s="1">
         <v>17.534931</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.415000</v>
+        <v>-226.41499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>63137.263314</v>
+        <v>63137.263314000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.538129</v>
+        <v>17.538129000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.187000</v>
+        <v>-361.18700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>63148.062243</v>
@@ -4274,13 +4690,13 @@
         <v>17.541128</v>
       </c>
       <c r="BP16" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.591000</v>
+        <v>-568.59100000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>63158.572966</v>
@@ -4289,317 +4705,317 @@
         <v>17.544048</v>
       </c>
       <c r="BU16" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-789.285000</v>
+        <v>-789.28499999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>63169.888695</v>
+        <v>63169.888695000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.547191</v>
+        <v>17.547191000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1566.180000</v>
+        <v>1566.18</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1019.510000</v>
+        <v>-1019.51</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>63182.252934</v>
+        <v>63182.252933999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.550626</v>
+        <v>17.550626000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1969.100000</v>
+        <v>1969.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1555.970000</v>
+        <v>-1555.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>63008.925468</v>
+        <v>63008.925468000001</v>
       </c>
       <c r="B17" s="1">
-        <v>17.502479</v>
+        <v>17.502479000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>899.410000</v>
+        <v>899.41</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.070000</v>
+        <v>-197.07</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>63019.289412</v>
+        <v>63019.289411999998</v>
       </c>
       <c r="G17" s="1">
-        <v>17.505358</v>
+        <v>17.505358000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.714000</v>
+        <v>916.71400000000006</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.305000</v>
+        <v>-167.30500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>63029.500512</v>
+        <v>63029.500511999999</v>
       </c>
       <c r="L17" s="1">
-        <v>17.508195</v>
+        <v>17.508195000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.731000</v>
+        <v>939.73099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.094000</v>
+        <v>-120.09399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>63039.746744</v>
+        <v>63039.746743999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.511041</v>
+        <v>17.511040999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.503000</v>
+        <v>946.50300000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.699000</v>
+        <v>-104.699</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>63049.903445</v>
+        <v>63049.903445000004</v>
       </c>
       <c r="V17" s="1">
         <v>17.513862</v>
       </c>
       <c r="W17" s="1">
-        <v>953.222000</v>
+        <v>953.22199999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.623300</v>
+        <v>-90.6233</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>63060.349222</v>
+        <v>63060.349221999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.516764</v>
+        <v>17.516763999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.524000</v>
+        <v>960.524</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.724800</v>
+        <v>-80.724800000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>63071.529051</v>
+        <v>63071.529050999998</v>
       </c>
       <c r="AF17" s="1">
         <v>17.519869</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.558000</v>
+        <v>965.55799999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.129700</v>
+        <v>-80.1297</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>63082.115130</v>
+        <v>63082.115129999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.522810</v>
+        <v>17.52281</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.333000</v>
+        <v>973.33299999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.540200</v>
+        <v>-87.540199999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>63092.930396</v>
+        <v>63092.930396000003</v>
       </c>
       <c r="AP17" s="1">
         <v>17.525814</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.445000</v>
+        <v>982.44500000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>63104.078477</v>
+        <v>63104.078477000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.528911</v>
+        <v>17.528911000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.761000</v>
+        <v>993.76099999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.587000</v>
+        <v>-123.587</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>63115.417054</v>
+        <v>63115.417053999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.532060</v>
+        <v>17.532060000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.360000</v>
+        <v>1003.36</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.212000</v>
+        <v>-142.21199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>63126.438129</v>
+        <v>63126.438129000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.535122</v>
+        <v>17.535122000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.396000</v>
+        <v>-226.39599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>63137.372434</v>
+        <v>63137.372433999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>17.538159</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.020000</v>
+        <v>1128.02</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.168000</v>
+        <v>-361.16800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>63148.477858</v>
+        <v>63148.477857999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.541244</v>
+        <v>17.541243999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1259.220000</v>
+        <v>1259.22</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.573000</v>
+        <v>-568.57299999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>63159.005481</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.544168</v>
+        <v>17.544167999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="BV17" s="1">
-        <v>-789.282000</v>
+        <v>-789.28200000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>63170.336054</v>
+        <v>63170.336053999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.547316</v>
+        <v>17.547315999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1566.420000</v>
+        <v>1566.42</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1019.630000</v>
+        <v>-1019.63</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>63182.804982</v>
+        <v>63182.804982000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.550779</v>
+        <v>17.550778999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1969.870000</v>
+        <v>1969.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1556.180000</v>
+        <v>-1556.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>63009.202236</v>
+        <v>63009.202235999997</v>
       </c>
       <c r="B18" s="1">
-        <v>17.502556</v>
+        <v>17.502555999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>899.285000</v>
+        <v>899.28499999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.122000</v>
+        <v>-197.12200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>63019.633596</v>
@@ -4608,632 +5024,632 @@
         <v>17.505454</v>
       </c>
       <c r="H18" s="1">
-        <v>916.424000</v>
+        <v>916.42399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.601000</v>
+        <v>-167.601</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>63029.901280</v>
+        <v>63029.901279999998</v>
       </c>
       <c r="L18" s="1">
-        <v>17.508306</v>
+        <v>17.508306000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.865000</v>
+        <v>939.86500000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.034000</v>
+        <v>-120.03400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>63040.092082</v>
+        <v>63040.092082000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.511137</v>
+        <v>17.511137000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>946.454000</v>
+        <v>946.45399999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.680000</v>
+        <v>-104.68</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>63050.591891</v>
+        <v>63050.591890999996</v>
       </c>
       <c r="V18" s="1">
-        <v>17.514053</v>
+        <v>17.514053000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.180000</v>
+        <v>953.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.664300</v>
+        <v>-90.664299999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>63061.047584</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.516958</v>
+        <v>17.516957999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.385000</v>
+        <v>960.38499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.792300</v>
+        <v>-80.792299999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>63071.874231</v>
+        <v>63071.874231000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.519965</v>
+        <v>17.519964999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.404000</v>
+        <v>965.404</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.997500</v>
+        <v>-79.997500000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>63082.465802</v>
+        <v>63082.465801999999</v>
       </c>
       <c r="AK18" s="1">
         <v>17.522907</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.371000</v>
+        <v>973.37099999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.549300</v>
+        <v>-87.549300000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>63093.295488</v>
+        <v>63093.295488000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.525915</v>
+        <v>17.525915000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.452000</v>
+        <v>982.452</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>63104.749095</v>
+        <v>63104.749094999999</v>
       </c>
       <c r="AU18" s="1">
         <v>17.529097</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.768000</v>
+        <v>993.76800000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.590000</v>
+        <v>-123.59</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>63115.825727</v>
+        <v>63115.825727000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.532174</v>
+        <v>17.532174000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.181000</v>
+        <v>-142.18100000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>63126.875617</v>
+        <v>63126.875616999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.535243</v>
+        <v>17.535243000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.570000</v>
+        <v>1048.57</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.388000</v>
+        <v>-226.38800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>63137.736000</v>
+        <v>63137.735999999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.538260</v>
+        <v>17.538260000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.040000</v>
+        <v>1128.04</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.171000</v>
+        <v>-361.17099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>63148.878130</v>
+        <v>63148.878129999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.541355</v>
+        <v>17.541354999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.565000</v>
+        <v>-568.56500000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>63159.414656</v>
+        <v>63159.414656000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.544282</v>
+        <v>17.544281999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="BV18" s="1">
-        <v>-789.318000</v>
+        <v>-789.31799999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>63170.769098</v>
+        <v>63170.769097999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.547436</v>
+        <v>17.547436000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1566.320000</v>
+        <v>1566.32</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1019.490000</v>
+        <v>-1019.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>63183.333881</v>
+        <v>63183.333880999999</v>
       </c>
       <c r="CD18" s="1">
         <v>17.550926</v>
       </c>
       <c r="CE18" s="1">
-        <v>1968.240000</v>
+        <v>1968.24</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1556.430000</v>
+        <v>-1556.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>63009.537531</v>
+        <v>63009.537531000002</v>
       </c>
       <c r="B19" s="1">
-        <v>17.502649</v>
+        <v>17.502649000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>899.351000</v>
+        <v>899.351</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.010000</v>
+        <v>-197.01</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>63019.980796</v>
+        <v>63019.980796000003</v>
       </c>
       <c r="G19" s="1">
-        <v>17.505550</v>
+        <v>17.505549999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.015000</v>
+        <v>917.01499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.314000</v>
+        <v>-167.31399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>63030.545583</v>
+        <v>63030.545582999999</v>
       </c>
       <c r="L19" s="1">
         <v>17.508485</v>
       </c>
       <c r="M19" s="1">
-        <v>939.606000</v>
+        <v>939.60599999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.990000</v>
+        <v>-119.99</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>63040.788962</v>
+        <v>63040.788961999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.511330</v>
+        <v>17.511330000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.452000</v>
+        <v>946.452</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.627000</v>
+        <v>-104.627</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>63050.934628</v>
+        <v>63050.934628000003</v>
       </c>
       <c r="V19" s="1">
         <v>17.514149</v>
       </c>
       <c r="W19" s="1">
-        <v>953.286000</v>
+        <v>953.28599999999994</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.670500</v>
+        <v>-90.670500000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>63061.394757</v>
+        <v>63061.394757000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.517054</v>
+        <v>17.517054000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.553000</v>
+        <v>960.553</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.825100</v>
+        <v>-80.825100000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>63072.215975</v>
+        <v>63072.215974999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.520060</v>
+        <v>17.520060000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.426000</v>
+        <v>965.42600000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.051000</v>
+        <v>-80.051000000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>63083.121512</v>
+        <v>63083.121511999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.523089</v>
+        <v>17.523088999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.341000</v>
+        <v>973.34100000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.556800</v>
+        <v>-87.556799999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>63093.973979</v>
+        <v>63093.973979000002</v>
       </c>
       <c r="AP19" s="1">
         <v>17.526104</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.451000</v>
+        <v>982.45100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>63105.206381</v>
+        <v>63105.206381000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.529224</v>
+        <v>17.529223999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.758000</v>
+        <v>993.75800000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.572000</v>
+        <v>-123.572</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>63116.210158</v>
+        <v>63116.210158000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.532281</v>
+        <v>17.532281000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>63127.237714</v>
+        <v>63127.237714000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.535344</v>
+        <v>17.535343999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.570000</v>
+        <v>1048.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.418000</v>
+        <v>-226.41800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>63138.109520</v>
+        <v>63138.109519999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>17.538364</v>
+        <v>17.538364000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.198000</v>
+        <v>-361.19799999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>63149.299770</v>
+        <v>63149.299769999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.541472</v>
+        <v>17.541471999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.605000</v>
+        <v>-568.60500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>63159.847651</v>
+        <v>63159.847650999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.544402</v>
+        <v>17.544402000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="BV19" s="1">
-        <v>-789.280000</v>
+        <v>-789.28</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>63171.191685</v>
+        <v>63171.191684999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.547553</v>
+        <v>17.547553000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1566.330000</v>
+        <v>1566.33</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1019.510000</v>
+        <v>-1019.51</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>63183.851044</v>
+        <v>63183.851044000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.551070</v>
+        <v>17.551069999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1968.670000</v>
+        <v>1968.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1557.940000</v>
+        <v>-1557.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>63009.881753</v>
+        <v>63009.881753000001</v>
       </c>
       <c r="B20" s="1">
-        <v>17.502745</v>
+        <v>17.502745000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>899.460000</v>
+        <v>899.46</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.127000</v>
+        <v>-197.12700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63020.674203</v>
+        <v>63020.674203000002</v>
       </c>
       <c r="G20" s="1">
-        <v>17.505743</v>
+        <v>17.505742999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>916.244000</v>
+        <v>916.24400000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.137000</v>
+        <v>-167.137</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>63030.891294</v>
+        <v>63030.891294000001</v>
       </c>
       <c r="L20" s="1">
         <v>17.508581</v>
       </c>
       <c r="M20" s="1">
-        <v>939.662000</v>
+        <v>939.66200000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.024000</v>
+        <v>-120.024</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>63041.137152</v>
+        <v>63041.137152000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.511427</v>
+        <v>17.511427000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>946.484000</v>
+        <v>946.48400000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.648000</v>
+        <v>-104.648</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>63051.279877</v>
+        <v>63051.279877000001</v>
       </c>
       <c r="V20" s="1">
-        <v>17.514244</v>
+        <v>17.514244000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.134000</v>
+        <v>953.13400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.689400</v>
+        <v>-90.689400000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>63061.742454</v>
+        <v>63061.742453999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.517151</v>
+        <v>17.517150999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.532000</v>
+        <v>960.53200000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.683800</v>
+        <v>-80.683800000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>63072.874697</v>
+        <v>63072.874696999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.520243</v>
+        <v>17.520243000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.357000</v>
+        <v>965.35699999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.113700</v>
+        <v>-80.113699999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>63083.506904</v>
+        <v>63083.506904000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.523196</v>
+        <v>17.523195999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.354000</v>
+        <v>973.35400000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.564200</v>
+        <v>-87.5642</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>63094.397593</v>
+        <v>63094.397593000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.526222</v>
+        <v>17.526222000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.440000</v>
+        <v>982.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.254000</v>
+        <v>-102.254</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>63105.570967</v>
@@ -5242,195 +5658,195 @@
         <v>17.529325</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.751000</v>
+        <v>993.75099999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.599000</v>
+        <v>-123.599</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>63116.570716</v>
+        <v>63116.570716000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.532381</v>
+        <v>17.532381000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.194000</v>
+        <v>-142.19399999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>63127.599262</v>
+        <v>63127.599262000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.535444</v>
+        <v>17.535443999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.416000</v>
+        <v>-226.416</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>63138.536576</v>
+        <v>63138.536575999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.538482</v>
+        <v>17.538481999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.020000</v>
+        <v>1128.02</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.180000</v>
+        <v>-361.18</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>63149.694545</v>
+        <v>63149.694544999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.541582</v>
+        <v>17.541581999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1259.240000</v>
+        <v>1259.24</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.597000</v>
+        <v>-568.59699999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>63160.276697</v>
+        <v>63160.276697000001</v>
       </c>
       <c r="BT20" s="1">
         <v>17.544521</v>
       </c>
       <c r="BU20" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-789.321000</v>
+        <v>-789.32100000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>63171.613748</v>
+        <v>63171.613748000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.547670</v>
+        <v>17.54767</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1566.290000</v>
+        <v>1566.29</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1019.470000</v>
+        <v>-1019.47</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>63184.368867</v>
+        <v>63184.368866999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.551214</v>
+        <v>17.551214000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1970.180000</v>
+        <v>1970.18</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1557.690000</v>
+        <v>-1557.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>63010.567720</v>
+        <v>63010.567719999999</v>
       </c>
       <c r="B21" s="1">
-        <v>17.502935</v>
+        <v>17.502935000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>899.496000</v>
+        <v>899.49599999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.982000</v>
+        <v>-196.982</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>63021.018955</v>
       </c>
       <c r="G21" s="1">
-        <v>17.505839</v>
+        <v>17.505839000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>916.416000</v>
+        <v>916.41600000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.947000</v>
+        <v>-166.947</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>63031.237503</v>
+        <v>63031.237502999997</v>
       </c>
       <c r="L21" s="1">
-        <v>17.508677</v>
+        <v>17.508676999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.753000</v>
+        <v>939.75300000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.226000</v>
+        <v>-120.226</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>63041.485344</v>
+        <v>63041.485344000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.511524</v>
+        <v>17.511524000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.527000</v>
+        <v>946.52700000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.672000</v>
+        <v>-104.672</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>63051.937078</v>
+        <v>63051.937078000003</v>
       </c>
       <c r="V21" s="1">
-        <v>17.514427</v>
+        <v>17.514427000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>953.096000</v>
+        <v>953.096</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.684400</v>
+        <v>-90.684399999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>63062.418996</v>
@@ -5439,28 +5855,28 @@
         <v>17.517339</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.565000</v>
+        <v>960.56500000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.802900</v>
+        <v>-80.802899999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>63073.246166</v>
+        <v>63073.246165999997</v>
       </c>
       <c r="AF21" s="1">
         <v>17.520346</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.433000</v>
+        <v>965.43299999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.188500</v>
+        <v>-80.188500000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>63083.859288</v>
@@ -5469,467 +5885,467 @@
         <v>17.523294</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.363000</v>
+        <v>973.36300000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.590000</v>
+        <v>-87.59</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>63094.788442</v>
+        <v>63094.788441999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.526330</v>
+        <v>17.526330000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.449000</v>
+        <v>982.44899999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>63105.936988</v>
+        <v>63105.936988000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.529427</v>
+        <v>17.529426999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.774000</v>
+        <v>993.774</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.573000</v>
+        <v>-123.57299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>63116.992352</v>
+        <v>63116.992352000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.532498</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.185000</v>
+        <v>-142.185</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>63128.031773</v>
+        <v>63128.031773000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.535564</v>
+        <v>17.535564000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.395000</v>
+        <v>-226.39500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>63138.858447</v>
+        <v>63138.858446999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.538572</v>
+        <v>17.538571999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.152000</v>
+        <v>-361.15199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>63150.118130</v>
+        <v>63150.118130000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.541699</v>
+        <v>17.541699000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.602000</v>
+        <v>-568.60199999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>63160.686389</v>
+        <v>63160.686389000002</v>
       </c>
       <c r="BT21" s="1">
         <v>17.544635</v>
       </c>
       <c r="BU21" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="BV21" s="1">
-        <v>-789.278000</v>
+        <v>-789.27800000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>63172.037829</v>
+        <v>63172.037829000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.547788</v>
+        <v>17.547788000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1566.280000</v>
+        <v>1566.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1019.670000</v>
+        <v>-1019.67</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>63184.887721</v>
+        <v>63184.887720999999</v>
       </c>
       <c r="CD21" s="1">
         <v>17.551358</v>
       </c>
       <c r="CE21" s="1">
-        <v>1970.070000</v>
+        <v>1970.07</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1557.790000</v>
+        <v>-1557.79</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>63010.906489</v>
+        <v>63010.906489000001</v>
       </c>
       <c r="B22" s="1">
-        <v>17.503030</v>
+        <v>17.503029999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.325000</v>
+        <v>899.32500000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.991000</v>
+        <v>-196.99100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>63021.366154</v>
+        <v>63021.366154000003</v>
       </c>
       <c r="G22" s="1">
-        <v>17.505935</v>
+        <v>17.505935000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.774000</v>
+        <v>916.774</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.571000</v>
+        <v>-167.571</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>63031.892749</v>
+        <v>63031.892748999999</v>
       </c>
       <c r="L22" s="1">
-        <v>17.508859</v>
+        <v>17.508859000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.779000</v>
+        <v>939.779</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.166000</v>
+        <v>-120.166</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>63042.154943</v>
+        <v>63042.154943000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.511710</v>
+        <v>17.511710000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>946.482000</v>
+        <v>946.48199999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.691000</v>
+        <v>-104.691</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>63052.318005</v>
+        <v>63052.318005000001</v>
       </c>
       <c r="V22" s="1">
         <v>17.514533</v>
       </c>
       <c r="W22" s="1">
-        <v>953.014000</v>
+        <v>953.01400000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.748000</v>
+        <v>-90.748000000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>63062.788516</v>
+        <v>63062.788516000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.517441</v>
+        <v>17.517441000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.504000</v>
+        <v>960.50400000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.827100</v>
+        <v>-80.827100000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>63073.591894</v>
+        <v>63073.591893999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.520442</v>
+        <v>17.520441999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.425000</v>
+        <v>965.42499999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.168200</v>
+        <v>-80.168199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>63084.207255</v>
+        <v>63084.207255000001</v>
       </c>
       <c r="AK22" s="1">
         <v>17.523391</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.337000</v>
+        <v>973.33699999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.539800</v>
+        <v>-87.5398</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>63095.149497</v>
+        <v>63095.149496999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.526430</v>
+        <v>17.526430000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.460000</v>
+        <v>982.46</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>63106.368011</v>
+        <v>63106.368010999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.529547</v>
+        <v>17.529547000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.755000</v>
+        <v>993.755</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.578000</v>
+        <v>-123.578</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>63117.287963</v>
+        <v>63117.287963000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.532580</v>
+        <v>17.532579999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.173000</v>
+        <v>-142.173</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>63128.319981</v>
+        <v>63128.319981000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.535644</v>
+        <v>17.535644000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.418000</v>
+        <v>-226.41800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>63139.256240</v>
+        <v>63139.256240000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.538682</v>
+        <v>17.538682000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.020000</v>
+        <v>1128.02</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.164000</v>
+        <v>-361.16399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>63150.511983</v>
+        <v>63150.511982999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.541809</v>
+        <v>17.541809000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.557000</v>
+        <v>-568.55700000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>63161.116915</v>
+        <v>63161.116914999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.544755</v>
+        <v>17.544754999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1405.690000</v>
+        <v>1405.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-789.359000</v>
+        <v>-789.35900000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>63172.455495</v>
+        <v>63172.455495000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.547904</v>
+        <v>17.547903999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1566.290000</v>
+        <v>1566.29</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1019.470000</v>
+        <v>-1019.47</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>63185.451171</v>
+        <v>63185.451171000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.551514</v>
+        <v>17.551514000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1968.650000</v>
+        <v>1968.65</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1558.090000</v>
+        <v>-1558.09</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>63011.251209</v>
+        <v>63011.251209000002</v>
       </c>
       <c r="B23" s="1">
-        <v>17.503125</v>
+        <v>17.503125000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>899.358000</v>
+        <v>899.35799999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.976000</v>
+        <v>-196.976</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>63022.031554</v>
+        <v>63022.031554000001</v>
       </c>
       <c r="G23" s="1">
-        <v>17.506120</v>
+        <v>17.506119999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.434000</v>
+        <v>916.43399999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.225000</v>
+        <v>-167.22499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>63032.273645</v>
+        <v>63032.273645000001</v>
       </c>
       <c r="L23" s="1">
         <v>17.508965</v>
       </c>
       <c r="M23" s="1">
-        <v>939.666000</v>
+        <v>939.66600000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.144000</v>
+        <v>-120.14400000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>63042.532399</v>
+        <v>63042.532399000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.511815</v>
+        <v>17.511814999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.471000</v>
+        <v>946.471</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.670000</v>
+        <v>-104.67</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>63052.652273</v>
@@ -5938,178 +6354,178 @@
         <v>17.514626</v>
       </c>
       <c r="W23" s="1">
-        <v>953.127000</v>
+        <v>953.12699999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.641200</v>
+        <v>-90.641199999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>63063.137733</v>
+        <v>63063.137733000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.517538</v>
+        <v>17.517537999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.501000</v>
+        <v>960.50099999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.735500</v>
+        <v>-80.735500000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>63073.939573</v>
+        <v>63073.939573000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.520539</v>
+        <v>17.520538999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.380000</v>
+        <v>965.38</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.094200</v>
+        <v>-80.094200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>63084.632359</v>
+        <v>63084.632359000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.523509</v>
+        <v>17.523509000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.349000</v>
+        <v>973.34900000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.554700</v>
+        <v>-87.554699999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>63095.576088</v>
+        <v>63095.576088000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.526549</v>
+        <v>17.526548999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.480000</v>
+        <v>982.48</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.244000</v>
+        <v>-102.244</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>63106.664649</v>
+        <v>63106.664648999998</v>
       </c>
       <c r="AU23" s="1">
         <v>17.529629</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.762000</v>
+        <v>993.76199999999994</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.583000</v>
+        <v>-123.583</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>63117.647036</v>
+        <v>63117.647036000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.532680</v>
+        <v>17.532679999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.185000</v>
+        <v>-142.185</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>63128.684012</v>
+        <v>63128.684011999998</v>
       </c>
       <c r="BE23" s="1">
         <v>17.535746</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.423000</v>
+        <v>-226.423</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>63139.633230</v>
+        <v>63139.633229999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.538787</v>
+        <v>17.538786999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.030000</v>
+        <v>1128.03</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.170000</v>
+        <v>-361.17</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>63150.931071</v>
+        <v>63150.931070999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.541925</v>
+        <v>17.541924999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.635000</v>
+        <v>-568.63499999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>63161.543969</v>
+        <v>63161.543968999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.544873</v>
+        <v>17.544872999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1405.550000</v>
+        <v>1405.55</v>
       </c>
       <c r="BV23" s="1">
-        <v>-789.334000</v>
+        <v>-789.33399999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>63172.902356</v>
+        <v>63172.902355999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.548028</v>
+        <v>17.548027999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1566.180000</v>
+        <v>1566.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1019.540000</v>
+        <v>-1019.54</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>63185.970449</v>
@@ -6118,195 +6534,195 @@
         <v>17.551658</v>
       </c>
       <c r="CE23" s="1">
-        <v>1970.180000</v>
+        <v>1970.18</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1557.530000</v>
+        <v>-1557.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>63011.906919</v>
+        <v>63011.906919000001</v>
       </c>
       <c r="B24" s="1">
         <v>17.503307</v>
       </c>
       <c r="C24" s="1">
-        <v>899.562000</v>
+        <v>899.56200000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.995000</v>
+        <v>-196.995</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>63022.397305</v>
+        <v>63022.397304999999</v>
       </c>
       <c r="G24" s="1">
         <v>17.506221</v>
       </c>
       <c r="H24" s="1">
-        <v>917.232000</v>
+        <v>917.23199999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.589000</v>
+        <v>-167.589</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>63032.617869</v>
+        <v>63032.617869000002</v>
       </c>
       <c r="L24" s="1">
-        <v>17.509061</v>
+        <v>17.509060999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.729000</v>
+        <v>939.72900000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.130000</v>
+        <v>-120.13</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>63042.879148</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.511911</v>
+        <v>17.511911000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.489000</v>
+        <v>946.48900000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.650000</v>
+        <v>-104.65</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>63053.006913</v>
+        <v>63053.006912999997</v>
       </c>
       <c r="V24" s="1">
-        <v>17.514724</v>
+        <v>17.514724000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>953.173000</v>
+        <v>953.173</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.619300</v>
+        <v>-90.619299999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>63063.491348</v>
+        <v>63063.491348000003</v>
       </c>
       <c r="AA24" s="1">
         <v>17.517636</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.574000</v>
+        <v>960.57399999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.772400</v>
+        <v>-80.772400000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>63074.362196</v>
+        <v>63074.362196000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.520656</v>
+        <v>17.520655999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.585000</v>
+        <v>965.58500000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.107300</v>
+        <v>-80.107299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>63084.913062</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.523587</v>
+        <v>17.523586999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.338000</v>
+        <v>973.33799999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.584400</v>
+        <v>-87.584400000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>63095.868234</v>
+        <v>63095.868234000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.526630</v>
+        <v>17.526630000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.456000</v>
+        <v>982.45600000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>63107.022729</v>
+        <v>63107.022728999997</v>
       </c>
       <c r="AU24" s="1">
         <v>17.529729</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.770000</v>
+        <v>993.77</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.580000</v>
+        <v>-123.58</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>63118.007131</v>
+        <v>63118.007130999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.532780</v>
+        <v>17.532779999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.340000</v>
+        <v>1003.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.202000</v>
+        <v>-142.202</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>63129.043612</v>
+        <v>63129.043612000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.535845</v>
+        <v>17.535844999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.530000</v>
+        <v>1048.53</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.416000</v>
+        <v>-226.416</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>63140.382694</v>
@@ -6315,407 +6731,407 @@
         <v>17.538995</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.010000</v>
+        <v>1128.01</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.186000</v>
+        <v>-361.18599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>63151.328401</v>
+        <v>63151.328400999999</v>
       </c>
       <c r="BO24" s="1">
         <v>17.542036</v>
       </c>
       <c r="BP24" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.596000</v>
+        <v>-568.596</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>63161.955650</v>
+        <v>63161.955650000004</v>
       </c>
       <c r="BT24" s="1">
         <v>17.544988</v>
       </c>
       <c r="BU24" s="1">
-        <v>1405.610000</v>
+        <v>1405.61</v>
       </c>
       <c r="BV24" s="1">
-        <v>-789.358000</v>
+        <v>-789.35799999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>63173.318994</v>
+        <v>63173.318994000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.548144</v>
+        <v>17.548144000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1566.180000</v>
+        <v>1566.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1019.510000</v>
+        <v>-1019.51</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>63186.805256</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.551890</v>
+        <v>17.55189</v>
       </c>
       <c r="CE24" s="1">
-        <v>1969.740000</v>
+        <v>1969.74</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1556.350000</v>
+        <v>-1556.35</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>63012.273002</v>
+        <v>63012.273002000002</v>
       </c>
       <c r="B25" s="1">
-        <v>17.503409</v>
+        <v>17.503409000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>899.354000</v>
+        <v>899.35400000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.951000</v>
+        <v>-196.95099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>63022.745496</v>
+        <v>63022.745496000003</v>
       </c>
       <c r="G25" s="1">
         <v>17.506318</v>
       </c>
       <c r="H25" s="1">
-        <v>916.611000</v>
+        <v>916.61099999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.439000</v>
+        <v>-167.43899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>63032.967548</v>
+        <v>63032.967548000001</v>
       </c>
       <c r="L25" s="1">
-        <v>17.509158</v>
+        <v>17.509157999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>939.748000</v>
+        <v>939.74800000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.231000</v>
+        <v>-120.23099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>63043.231263</v>
+        <v>63043.231263000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.512009</v>
+        <v>17.512008999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.478000</v>
+        <v>946.47799999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.653000</v>
+        <v>-104.65300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>63053.424545</v>
+        <v>63053.424545000002</v>
       </c>
       <c r="V25" s="1">
-        <v>17.514840</v>
+        <v>17.51484</v>
       </c>
       <c r="W25" s="1">
-        <v>953.173000</v>
+        <v>953.173</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.680900</v>
+        <v>-90.680899999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>63064.190210</v>
+        <v>63064.190210000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.517831</v>
+        <v>17.517831000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.826000</v>
+        <v>-80.825999999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>63074.642443</v>
+        <v>63074.642442999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.520734</v>
+        <v>17.520734000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.533000</v>
+        <v>965.53300000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.312000</v>
+        <v>-80.311999999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>63085.263239</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.523684</v>
+        <v>17.523683999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.349000</v>
+        <v>973.34900000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.543300</v>
+        <v>-87.543300000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>63096.226840</v>
+        <v>63096.226840000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.526730</v>
+        <v>17.526730000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.450000</v>
+        <v>982.45</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.228000</v>
+        <v>-102.22799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>63107.394234</v>
+        <v>63107.394233999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.529832</v>
+        <v>17.529831999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.755000</v>
+        <v>993.755</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.601000</v>
+        <v>-123.601</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>63118.727819</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.532980</v>
+        <v>17.532979999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.320000</v>
+        <v>1003.32</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.187000</v>
+        <v>-142.18700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>63129.765329</v>
+        <v>63129.765329000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.536046</v>
+        <v>17.536045999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.550000</v>
+        <v>1048.55</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>63140.759154</v>
+        <v>63140.759153999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.539100</v>
+        <v>17.539100000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.149000</v>
+        <v>-361.149</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>63151.751454</v>
+        <v>63151.751453999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.542153</v>
+        <v>17.542152999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1259.210000</v>
+        <v>1259.21</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.576000</v>
+        <v>-568.57600000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>63162.388658</v>
+        <v>63162.388658000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.545108</v>
+        <v>17.545107999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1405.580000</v>
+        <v>1405.58</v>
       </c>
       <c r="BV25" s="1">
-        <v>-789.379000</v>
+        <v>-789.37900000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>63174.063521</v>
+        <v>63174.063520999996</v>
       </c>
       <c r="BY25" s="1">
         <v>17.548351</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1566.250000</v>
+        <v>1566.25</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1019.610000</v>
+        <v>-1019.61</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>63187.007089</v>
+        <v>63187.007088999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.551946</v>
+        <v>17.551946000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1968.290000</v>
+        <v>1968.29</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1557.110000</v>
+        <v>-1557.11</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>63012.624135</v>
+        <v>63012.624134999998</v>
       </c>
       <c r="B26" s="1">
-        <v>17.503507</v>
+        <v>17.503506999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>899.311000</v>
+        <v>899.31100000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.862000</v>
+        <v>-196.86199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>63023.087240</v>
+        <v>63023.087240000001</v>
       </c>
       <c r="G26" s="1">
-        <v>17.506413</v>
+        <v>17.506412999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>916.749000</v>
+        <v>916.74900000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.015000</v>
+        <v>-167.01499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>63033.394604</v>
+        <v>63033.394604000001</v>
       </c>
       <c r="L26" s="1">
         <v>17.509276</v>
       </c>
       <c r="M26" s="1">
-        <v>939.816000</v>
+        <v>939.81600000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.141000</v>
+        <v>-120.14100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>63043.658814</v>
+        <v>63043.658814000002</v>
       </c>
       <c r="Q26" s="1">
         <v>17.512127</v>
       </c>
       <c r="R26" s="1">
-        <v>946.499000</v>
+        <v>946.49900000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.631000</v>
+        <v>-104.631</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>63053.702836</v>
+        <v>63053.702835999997</v>
       </c>
       <c r="V26" s="1">
-        <v>17.514917</v>
+        <v>17.514917000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.110000</v>
+        <v>953.11</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.646000</v>
+        <v>-90.646000000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>63064.536945</v>
@@ -6724,180 +7140,181 @@
         <v>17.517927</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.490000</v>
+        <v>960.49</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.783200</v>
+        <v>-80.783199999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>63074.987619</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.520830</v>
+        <v>17.52083</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.424000</v>
+        <v>965.42399999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.066500</v>
+        <v>-80.066500000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>63085.609180</v>
+        <v>63085.609179999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.523780</v>
+        <v>17.523779999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.346000</v>
+        <v>973.346</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.567000</v>
+        <v>-87.566999999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>63096.613191</v>
+        <v>63096.613190999997</v>
       </c>
       <c r="AP26" s="1">
         <v>17.526837</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.449000</v>
+        <v>982.44899999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>63108.125832</v>
+        <v>63108.125831999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.530035</v>
+        <v>17.530035000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.744000</v>
+        <v>993.74400000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.571000</v>
+        <v>-123.571</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>63119.102297</v>
+        <v>63119.102296999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.533084</v>
+        <v>17.533083999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.330000</v>
+        <v>1003.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.162000</v>
+        <v>-142.16200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>63130.210735</v>
+        <v>63130.210735000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.536170</v>
+        <v>17.536169999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.540000</v>
+        <v>1048.54</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.397000</v>
+        <v>-226.39699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>63141.137620</v>
+        <v>63141.137620000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.539205</v>
+        <v>17.539204999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.000000</v>
+        <v>1128</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.152000</v>
+        <v>-361.15199999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>63152.471645</v>
+        <v>63152.471644999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.542353</v>
+        <v>17.542352999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.582000</v>
+        <v>-568.58199999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>63163.127199</v>
+        <v>63163.127199000002</v>
       </c>
       <c r="BT26" s="1">
         <v>17.545313</v>
       </c>
       <c r="BU26" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="BV26" s="1">
-        <v>-789.339000</v>
+        <v>-789.33900000000006</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>63174.227664</v>
+        <v>63174.227663999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>17.548397</v>
+        <v>17.548397000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1566.380000</v>
+        <v>1566.38</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1019.600000</v>
+        <v>-1019.6</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>63187.523455</v>
+        <v>63187.523455000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.552090</v>
+        <v>17.55209</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.320000</v>
+        <v>1968.32</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1556.770000</v>
+        <v>-1556.77</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>